--- a/data/ch07/webpage_data/벅스_차트_주간_Top100_2020년_11월.xlsx
+++ b/data/ch07/webpage_data/벅스_차트_주간_Top100_2020년_11월.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPyExcel\data\ch07\webpage_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAC9290-C868-4084-9490-23414DBA77B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4815" yWindow="765" windowWidth="14430" windowHeight="14910" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1주" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="4주" sheetId="4" r:id="rId4"/>
     <sheet name="5주" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -743,12 +749,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -756,8 +762,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -803,15 +816,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -853,7 +874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,9 +906,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,6 +958,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1094,14 +1151,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1123,7 +1186,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1134,7 +1197,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1145,7 +1208,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1156,7 +1219,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1167,7 +1230,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1178,7 +1241,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1189,7 +1252,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1200,7 +1263,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1211,7 +1274,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1222,7 +1285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1233,7 +1296,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1244,7 +1307,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1255,7 +1318,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1266,7 +1329,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1277,7 +1340,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1288,7 +1351,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1299,7 +1362,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1310,7 +1373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1321,7 +1384,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1332,7 +1395,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1343,7 +1406,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1354,7 +1417,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1365,7 +1428,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1376,7 +1439,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1387,7 +1450,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1398,7 +1461,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1409,7 +1472,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1420,7 +1483,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1431,7 +1494,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1442,7 +1505,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1453,7 +1516,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1464,7 +1527,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1475,7 +1538,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1486,7 +1549,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1497,7 +1560,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1508,7 +1571,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1519,7 +1582,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1530,7 +1593,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1541,7 +1604,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1552,7 +1615,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1563,7 +1626,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1574,7 +1637,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1585,7 +1648,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1596,7 +1659,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1607,7 +1670,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1618,7 +1681,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1629,7 +1692,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1640,7 +1703,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1651,7 +1714,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1662,7 +1725,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1673,7 +1736,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1684,7 +1747,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1695,7 +1758,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1706,7 +1769,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1717,7 +1780,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1728,7 +1791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1739,7 +1802,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1750,7 +1813,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1761,7 +1824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1772,7 +1835,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1783,7 +1846,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1794,7 +1857,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1805,7 +1868,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1816,7 +1879,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1827,7 +1890,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1838,7 +1901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1849,7 +1912,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1860,7 +1923,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1871,7 +1934,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1882,7 +1945,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1893,7 +1956,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1904,7 +1967,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1915,7 +1978,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1926,7 +1989,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1937,7 +2000,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1948,7 +2011,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1959,7 +2022,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1970,7 +2033,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1981,7 +2044,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1992,7 +2055,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2003,7 +2066,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2014,7 +2077,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2025,7 +2088,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2036,7 +2099,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2047,7 +2110,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2058,7 +2121,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2069,7 +2132,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2080,7 +2143,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2091,7 +2154,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2102,7 +2165,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2113,7 +2176,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2124,7 +2187,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2135,7 +2198,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2146,7 +2209,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2157,7 +2220,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2168,7 +2231,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2179,7 +2242,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2190,7 +2253,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2201,7 +2264,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2213,19 +2276,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2247,7 +2316,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2258,7 +2327,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2269,7 +2338,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2280,7 +2349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2291,7 +2360,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2302,7 +2371,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2313,7 +2382,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2324,7 +2393,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2335,7 +2404,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2346,7 +2415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2357,7 +2426,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2368,7 +2437,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2379,7 +2448,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2390,7 +2459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2401,7 +2470,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2412,7 +2481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2423,7 +2492,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2434,7 +2503,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2445,7 +2514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2456,7 +2525,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2467,7 +2536,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2478,7 +2547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2489,7 +2558,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2500,7 +2569,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2511,7 +2580,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2522,7 +2591,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2533,7 +2602,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2544,7 +2613,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2555,7 +2624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2566,7 +2635,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2577,7 +2646,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2588,7 +2657,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2599,7 +2668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2610,7 +2679,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2621,7 +2690,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2632,7 +2701,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2643,7 +2712,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2654,7 +2723,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2665,7 +2734,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2676,7 +2745,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2687,7 +2756,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2698,7 +2767,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2709,7 +2778,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2720,7 +2789,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2731,7 +2800,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2742,7 +2811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2753,7 +2822,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2764,7 +2833,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2775,7 +2844,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2786,7 +2855,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2797,7 +2866,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2808,7 +2877,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2819,7 +2888,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2830,7 +2899,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2841,7 +2910,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2852,7 +2921,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2863,7 +2932,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2874,7 +2943,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2885,7 +2954,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2896,7 +2965,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2907,7 +2976,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2918,7 +2987,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2929,7 +2998,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2940,7 +3009,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2951,7 +3020,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2962,7 +3031,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2973,7 +3042,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2984,7 +3053,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2995,7 +3064,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3006,7 +3075,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3017,7 +3086,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3028,7 +3097,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3039,7 +3108,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3050,7 +3119,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3061,7 +3130,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3072,7 +3141,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3083,7 +3152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3094,7 +3163,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3105,7 +3174,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3116,7 +3185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3127,7 +3196,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3138,7 +3207,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3149,7 +3218,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3160,7 +3229,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3171,7 +3240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3182,7 +3251,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3193,7 +3262,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3204,7 +3273,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3215,7 +3284,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3226,7 +3295,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3237,7 +3306,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3248,7 +3317,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3259,7 +3328,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3270,7 +3339,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3281,7 +3350,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3292,7 +3361,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3303,7 +3372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3314,7 +3383,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3325,7 +3394,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3337,19 +3406,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="43.75" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3360,7 +3436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3371,7 +3447,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3382,7 +3458,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3393,7 +3469,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3404,7 +3480,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3415,7 +3491,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3426,7 +3502,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3437,7 +3513,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3448,7 +3524,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3459,7 +3535,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3470,7 +3546,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3481,7 +3557,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3492,7 +3568,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3503,7 +3579,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3514,7 +3590,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3525,7 +3601,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3536,7 +3612,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3547,7 +3623,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3558,7 +3634,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3569,7 +3645,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3580,7 +3656,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3591,7 +3667,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3602,7 +3678,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3613,7 +3689,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3624,7 +3700,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3635,7 +3711,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3646,7 +3722,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3657,7 +3733,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3668,7 +3744,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3679,7 +3755,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3690,7 +3766,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3701,7 +3777,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3712,7 +3788,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3723,7 +3799,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3734,7 +3810,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3745,7 +3821,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3756,7 +3832,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3767,7 +3843,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3778,7 +3854,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3789,7 +3865,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3800,7 +3876,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3811,7 +3887,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3822,7 +3898,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3833,7 +3909,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3844,7 +3920,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3855,7 +3931,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3866,7 +3942,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3877,7 +3953,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3888,7 +3964,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3899,7 +3975,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3910,7 +3986,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3921,7 +3997,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3932,7 +4008,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3943,7 +4019,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3954,7 +4030,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3965,7 +4041,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3976,7 +4052,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3987,7 +4063,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3998,7 +4074,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4009,7 +4085,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4020,7 +4096,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4031,7 +4107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4042,7 +4118,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4053,7 +4129,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4064,7 +4140,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4075,7 +4151,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4086,7 +4162,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4097,7 +4173,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4108,7 +4184,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4119,7 +4195,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4130,7 +4206,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4141,7 +4217,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4152,7 +4228,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4163,7 +4239,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4174,7 +4250,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4185,7 +4261,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4196,7 +4272,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4207,7 +4283,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4218,7 +4294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4229,7 +4305,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4240,7 +4316,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4251,7 +4327,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4262,7 +4338,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4273,7 +4349,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4284,7 +4360,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4295,7 +4371,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4306,7 +4382,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4317,7 +4393,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4328,7 +4404,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4339,7 +4415,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4350,7 +4426,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4361,7 +4437,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4372,7 +4448,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4383,7 +4459,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4394,7 +4470,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4405,7 +4481,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4416,7 +4492,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4427,7 +4503,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4438,7 +4514,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4449,7 +4525,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4461,19 +4537,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4484,7 +4565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4495,7 +4576,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4506,7 +4587,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4517,7 +4598,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4528,7 +4609,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4539,7 +4620,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4550,7 +4631,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4561,7 +4642,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4572,7 +4653,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4583,7 +4664,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4594,7 +4675,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4605,7 +4686,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4616,7 +4697,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4627,7 +4708,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4638,7 +4719,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4649,7 +4730,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4660,7 +4741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4671,7 +4752,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4682,7 +4763,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4693,7 +4774,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4704,7 +4785,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4715,7 +4796,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4726,7 +4807,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4737,7 +4818,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4748,7 +4829,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4759,7 +4840,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4770,7 +4851,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4781,7 +4862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4792,7 +4873,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4803,7 +4884,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4814,7 +4895,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4825,7 +4906,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4836,7 +4917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4847,7 +4928,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4858,7 +4939,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4869,7 +4950,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4880,7 +4961,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4891,7 +4972,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4902,7 +4983,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4913,7 +4994,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4924,7 +5005,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4935,7 +5016,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4946,7 +5027,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4957,7 +5038,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4968,7 +5049,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4979,7 +5060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4990,7 +5071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5001,7 +5082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5012,7 +5093,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5023,7 +5104,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5034,7 +5115,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5045,7 +5126,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5056,7 +5137,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5067,7 +5148,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5078,7 +5159,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5089,7 +5170,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5100,7 +5181,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5111,7 +5192,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5122,7 +5203,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5133,7 +5214,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5144,7 +5225,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5155,7 +5236,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5166,7 +5247,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5177,7 +5258,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5188,7 +5269,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5199,7 +5280,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5210,7 +5291,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5221,7 +5302,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5232,7 +5313,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5243,7 +5324,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5254,7 +5335,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5265,7 +5346,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5276,7 +5357,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5287,7 +5368,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5298,7 +5379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5309,7 +5390,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5320,7 +5401,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5331,7 +5412,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5342,7 +5423,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5353,7 +5434,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5364,7 +5445,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5375,7 +5456,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5386,7 +5467,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5397,7 +5478,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5408,7 +5489,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5419,7 +5500,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5430,7 +5511,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5441,7 +5522,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5452,7 +5533,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5463,7 +5544,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5474,7 +5555,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5485,7 +5566,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5496,7 +5577,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5507,7 +5588,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5518,7 +5599,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5529,7 +5610,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5540,7 +5621,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5551,7 +5632,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5562,7 +5643,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5573,7 +5654,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5585,19 +5666,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5608,7 +5694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5619,7 +5705,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5630,7 +5716,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5641,7 +5727,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5652,7 +5738,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5663,7 +5749,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5674,7 +5760,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5685,7 +5771,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5696,7 +5782,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5707,7 +5793,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5718,7 +5804,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5729,7 +5815,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5740,7 +5826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5751,7 +5837,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5762,7 +5848,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5773,7 +5859,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5784,7 +5870,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5795,7 +5881,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5806,7 +5892,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5817,7 +5903,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5828,7 +5914,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5839,7 +5925,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5850,7 +5936,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5861,7 +5947,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5872,7 +5958,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5883,7 +5969,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5894,7 +5980,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5905,7 +5991,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5916,7 +6002,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5927,7 +6013,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5938,7 +6024,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5949,7 +6035,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5960,7 +6046,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5971,7 +6057,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5982,7 +6068,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5993,7 +6079,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6004,7 +6090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6015,7 +6101,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6026,7 +6112,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6037,7 +6123,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6048,7 +6134,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6059,7 +6145,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6070,7 +6156,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6081,7 +6167,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6092,7 +6178,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6103,7 +6189,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6114,7 +6200,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6125,7 +6211,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6136,7 +6222,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6147,7 +6233,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6158,7 +6244,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6169,7 +6255,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6180,7 +6266,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6191,7 +6277,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6202,7 +6288,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6213,7 +6299,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6224,7 +6310,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6235,7 +6321,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6246,7 +6332,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6257,7 +6343,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6268,7 +6354,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6279,7 +6365,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6290,7 +6376,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6301,7 +6387,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6312,7 +6398,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6323,7 +6409,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6334,7 +6420,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6345,7 +6431,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6356,7 +6442,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6367,7 +6453,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6378,7 +6464,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6389,7 +6475,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6400,7 +6486,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6411,7 +6497,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6422,7 +6508,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6433,7 +6519,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6444,7 +6530,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6455,7 +6541,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6466,7 +6552,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6477,7 +6563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6488,7 +6574,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6499,7 +6585,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6510,7 +6596,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6521,7 +6607,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6532,7 +6618,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6543,7 +6629,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6554,7 +6640,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6565,7 +6651,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6576,7 +6662,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6587,7 +6673,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6598,7 +6684,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6609,7 +6695,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6620,7 +6706,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6631,7 +6717,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6642,7 +6728,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6653,7 +6739,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6664,7 +6750,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6675,7 +6761,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6686,7 +6772,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6697,7 +6783,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6709,6 +6795,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>